--- a/data/product_mapping.xlsx
+++ b/data/product_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Par_Level_updates\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3182C014-F269-49E3-8D15-8A3E434F2545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C8E444-8F12-4FA4-8AFF-C67C2CB69741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="908">
   <si>
     <t>crunchtime_product_number</t>
   </si>
@@ -2621,136 +2621,133 @@
     <t>Swirl, Candy Bar</t>
   </si>
   <si>
-    <t>Swirl, Sweetened Condensed Milk</t>
-  </si>
-  <si>
-    <t>Tea, Iced Berry Hibiscus</t>
-  </si>
-  <si>
-    <t>Swirl, White Chocolate</t>
-  </si>
-  <si>
-    <t>Syrup, Brown Sugar Cookie</t>
-  </si>
-  <si>
-    <t>Cleaning, Misc Items</t>
-  </si>
-  <si>
-    <t>Dairy, Pink Whipped Cream</t>
-  </si>
-  <si>
-    <t>Delfield Gasket Draw 64 Inch</t>
-  </si>
-  <si>
-    <t>Muffin, Corn (Deplete)</t>
-  </si>
-  <si>
     <t>OTGO Sticker Roll</t>
   </si>
   <si>
-    <t>PG Dawn Power Dissolver Spray</t>
-  </si>
-  <si>
-    <t>PG Maxim Banish Bio Enzymatic Drain</t>
-  </si>
-  <si>
-    <t>PG SpicSpan Liquid Floor Cleaner</t>
-  </si>
-  <si>
-    <t>SH Sight Gauge Seal w/Tube</t>
-  </si>
-  <si>
-    <t>Scour Pads</t>
-  </si>
-  <si>
-    <t>Swirl, Peppermint Mocha</t>
-  </si>
-  <si>
-    <t>PG Test Strips for Quat Sanitizer</t>
-  </si>
-  <si>
-    <t>Pitcher IO Blender</t>
-  </si>
-  <si>
-    <t>SYR Mop Head Blue 4 count</t>
-  </si>
-  <si>
-    <t>Spreader Cream Cheese 3.5 Inch Single</t>
-  </si>
-  <si>
-    <t>Tumbler, Acrylic Bubble Sipper 24oz</t>
-  </si>
-  <si>
-    <t>TurboChef Stone Encore</t>
-  </si>
-  <si>
-    <t>Bag, Delivery Poly</t>
-  </si>
-  <si>
-    <t>Bucket, Spring Munchkin 50 Ct</t>
-  </si>
-  <si>
-    <t>Carrier, Brioche</t>
-  </si>
-  <si>
-    <t>Condiment, Butter Cups</t>
-  </si>
-  <si>
-    <t>DD Crewneck Sweatshirt MD</t>
-  </si>
-  <si>
-    <t>Delfield Gasket Push In 27 Inch Fridge</t>
-  </si>
-  <si>
-    <t>Hashbrown Portion Bags (Plastic)</t>
-  </si>
-  <si>
-    <t>Kitchen Shears</t>
-  </si>
-  <si>
     <t>Liner, Iced Coffee Full</t>
   </si>
   <si>
-    <t>Swirl, Honeycomb</t>
-  </si>
-  <si>
-    <t>Swirl, Lava Cake</t>
-  </si>
-  <si>
-    <t>Taylor Dairy Tubes 100 per pack</t>
-  </si>
-  <si>
-    <t>Tumbler, Hydration Bottle Soft Touch 24oz</t>
-  </si>
-  <si>
-    <t>Tumbler, Ombre Acrylic Sipper 24oz</t>
-  </si>
-  <si>
-    <t>DD Hoodie MD</t>
-  </si>
-  <si>
-    <t>Gift Card, DD Cup</t>
-  </si>
-  <si>
-    <t>Label, Beverage Orange</t>
-  </si>
-  <si>
-    <t>Lemon Loaf Iced</t>
-  </si>
-  <si>
-    <t>Milk, Pint (16oz) Whole</t>
-  </si>
-  <si>
-    <t>Portion Tray</t>
-  </si>
-  <si>
-    <t>Tumbler, Stainless Sipper 20oz</t>
-  </si>
-  <si>
-    <t>types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
+    <t>P10086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Wipes 150 per case 150 WIPES/CASE	</t>
+  </si>
+  <si>
+    <t>P10257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6qt Square Storage Container Clear 1/1 EACH	</t>
+  </si>
+  <si>
+    <t>P10642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iced Coffee Lever 6 pack 6/*	</t>
+  </si>
+  <si>
+    <t>P10684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dole Lemonade 24/20 ounce 24/20 OZ	</t>
+  </si>
+  <si>
+    <t>P10917</t>
+  </si>
+  <si>
+    <t>Lid-solid for 1/6 size pan 1/*</t>
+  </si>
+  <si>
+    <t>P13387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinn Sugar Shaker 6 pack 3.62 ounce 1/*	</t>
+  </si>
+  <si>
+    <t>P14435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honey Packet 408/9 G 408/9G	</t>
+  </si>
+  <si>
+    <t>P13158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Herbal Chamomile Pyramid 6/15 count 15/90 CT	</t>
+  </si>
+  <si>
+    <t>P13160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Herbal Hibiscus Kiss Pyramid 6/15 ct 15/90 CT	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">915061	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toilet Tissue Jumbo 12 per case 1/12 CT	</t>
+  </si>
+  <si>
+    <t>P15043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sipper Acrylic Chiseled Ice 9/24oz 9/24 OZ	</t>
+  </si>
+  <si>
+    <t>P15192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland Springs Sparkling Water 24/16.9oz 24/16.9 OZ	</t>
+  </si>
+  <si>
+    <t>P10050</t>
+  </si>
+  <si>
+    <t>Multigrain Bagel Topping 10 pounds 1/10 LB</t>
+  </si>
+  <si>
+    <t>P10518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanding Sugar 4/8 32 pounds 4/8 LB	</t>
+  </si>
+  <si>
+    <t>P10658</t>
+  </si>
+  <si>
+    <t>Icing Optim NAT Color Strawberry 23 lbs 1/23 LB</t>
+  </si>
+  <si>
+    <t>P10789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milk Chug Whole 12/14 ounce 12/14 OZ	</t>
+  </si>
+  <si>
+    <t>P10956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG Dish Detergent 4/1 Gal Dawn 4/*	</t>
+  </si>
+  <si>
+    <t>P15084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straw Toppers Cup Charms 24 count 1/24 CT	</t>
+  </si>
+  <si>
+    <t>P14844</t>
+  </si>
+  <si>
+    <t>P13231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On-the-Go Stickers 8 rolls/cv 1/8 /1000CT	</t>
+  </si>
+  <si>
+    <t>P10763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iced Coffee Liner Bags Full Shuttle 100 100/*	</t>
   </si>
 </sst>
 </file>
@@ -3121,11 +3118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:M347"/>
+  <dimension ref="A1:E323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M347" sqref="M347"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3143,7 +3139,7 @@
     <col min="11" max="11" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3159,11 +3155,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -3179,30 +3172,16 @@
       <c r="E2" t="s">
         <v>816</v>
       </c>
-      <c r="K2" t="s">
-        <v>318</v>
-      </c>
-      <c r="M2" t="str">
-        <f>IF(ISERROR(VLOOKUP(K2, $B$2:$B$297, 1, FALSE)), K2, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
       <c r="B3" t="s">
         <v>418</v>
       </c>
-      <c r="K3" t="s">
-        <v>423</v>
-      </c>
-      <c r="M3" t="str">
-        <f t="shared" ref="M3:M66" si="0">IF(ISERROR(VLOOKUP(K3, $B$2:$B$297, 1, FALSE)), K3, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -3218,15 +3197,8 @@
       <c r="E4" t="s">
         <v>817</v>
       </c>
-      <c r="K4" t="s">
-        <v>350</v>
-      </c>
-      <c r="M4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -3242,15 +3214,8 @@
       <c r="E5" t="s">
         <v>669</v>
       </c>
-      <c r="K5" t="s">
-        <v>351</v>
-      </c>
-      <c r="M5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -3266,15 +3231,8 @@
       <c r="E6" t="s">
         <v>670</v>
       </c>
-      <c r="K6" t="s">
-        <v>352</v>
-      </c>
-      <c r="M6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -3290,15 +3248,8 @@
       <c r="E7" t="s">
         <v>671</v>
       </c>
-      <c r="K7" t="s">
-        <v>353</v>
-      </c>
-      <c r="M7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3314,15 +3265,8 @@
       <c r="E8" t="s">
         <v>609</v>
       </c>
-      <c r="K8" t="s">
-        <v>354</v>
-      </c>
-      <c r="M8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -3338,15 +3282,8 @@
       <c r="E9" t="s">
         <v>672</v>
       </c>
-      <c r="K9" t="s">
-        <v>390</v>
-      </c>
-      <c r="M9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3362,15 +3299,8 @@
       <c r="E10" t="s">
         <v>808</v>
       </c>
-      <c r="K10" t="s">
-        <v>424</v>
-      </c>
-      <c r="M10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -3386,15 +3316,8 @@
       <c r="E11" t="s">
         <v>618</v>
       </c>
-      <c r="K11" t="s">
-        <v>425</v>
-      </c>
-      <c r="M11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -3410,15 +3333,8 @@
       <c r="E12" t="s">
         <v>619</v>
       </c>
-      <c r="K12" t="s">
-        <v>426</v>
-      </c>
-      <c r="M12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -3434,15 +3350,8 @@
       <c r="E13" t="s">
         <v>620</v>
       </c>
-      <c r="K13" t="s">
-        <v>427</v>
-      </c>
-      <c r="M13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -3458,15 +3367,8 @@
       <c r="E14" t="s">
         <v>621</v>
       </c>
-      <c r="K14" t="s">
-        <v>428</v>
-      </c>
-      <c r="M14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -3482,15 +3384,8 @@
       <c r="E15" t="s">
         <v>653</v>
       </c>
-      <c r="K15" t="s">
-        <v>429</v>
-      </c>
-      <c r="M15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -3506,15 +3401,8 @@
       <c r="E16" t="s">
         <v>673</v>
       </c>
-      <c r="K16" t="s">
-        <v>544</v>
-      </c>
-      <c r="M16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -3530,15 +3418,8 @@
       <c r="E17" t="s">
         <v>674</v>
       </c>
-      <c r="K17" t="s">
-        <v>430</v>
-      </c>
-      <c r="M17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -3554,15 +3435,8 @@
       <c r="E18" t="s">
         <v>675</v>
       </c>
-      <c r="K18" t="s">
-        <v>545</v>
-      </c>
-      <c r="M18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -3578,15 +3452,8 @@
       <c r="E19" t="s">
         <v>676</v>
       </c>
-      <c r="K19" t="s">
-        <v>841</v>
-      </c>
-      <c r="M19" t="str">
-        <f t="shared" si="0"/>
-        <v>Blue Wipes 144 per case</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -3602,15 +3469,8 @@
       <c r="E20" t="s">
         <v>677</v>
       </c>
-      <c r="K20" t="s">
-        <v>432</v>
-      </c>
-      <c r="M20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -3626,15 +3486,8 @@
       <c r="E21" t="s">
         <v>818</v>
       </c>
-      <c r="K21" t="s">
-        <v>433</v>
-      </c>
-      <c r="M21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>248</v>
       </c>
@@ -3650,15 +3503,8 @@
       <c r="E22" t="s">
         <v>761</v>
       </c>
-      <c r="K22" t="s">
-        <v>434</v>
-      </c>
-      <c r="M22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -3668,15 +3514,8 @@
       <c r="C23">
         <v>12</v>
       </c>
-      <c r="K23" t="s">
-        <v>435</v>
-      </c>
-      <c r="M23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>249</v>
       </c>
@@ -3686,15 +3525,8 @@
       <c r="C24">
         <v>4</v>
       </c>
-      <c r="K24" t="s">
-        <v>436</v>
-      </c>
-      <c r="M24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>135</v>
       </c>
@@ -3710,15 +3542,8 @@
       <c r="E25" t="s">
         <v>678</v>
       </c>
-      <c r="K25" t="s">
-        <v>437</v>
-      </c>
-      <c r="M25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>136</v>
       </c>
@@ -3734,15 +3559,8 @@
       <c r="E26" t="s">
         <v>819</v>
       </c>
-      <c r="K26" t="s">
-        <v>438</v>
-      </c>
-      <c r="M26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -3758,15 +3576,8 @@
       <c r="E27" t="s">
         <v>679</v>
       </c>
-      <c r="K27" t="s">
-        <v>439</v>
-      </c>
-      <c r="M27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>138</v>
       </c>
@@ -3782,15 +3593,8 @@
       <c r="E28" t="s">
         <v>820</v>
       </c>
-      <c r="K28" t="s">
-        <v>440</v>
-      </c>
-      <c r="M28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -3806,15 +3610,8 @@
       <c r="E29" t="s">
         <v>680</v>
       </c>
-      <c r="K29" t="s">
-        <v>588</v>
-      </c>
-      <c r="M29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -3830,15 +3627,8 @@
       <c r="E30" t="s">
         <v>681</v>
       </c>
-      <c r="K30" t="s">
-        <v>441</v>
-      </c>
-      <c r="M30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>141</v>
       </c>
@@ -3854,15 +3644,8 @@
       <c r="E31" t="s">
         <v>821</v>
       </c>
-      <c r="K31" t="s">
-        <v>355</v>
-      </c>
-      <c r="M31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -3878,15 +3661,8 @@
       <c r="E32" t="s">
         <v>683</v>
       </c>
-      <c r="K32" t="s">
-        <v>546</v>
-      </c>
-      <c r="M32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -3902,15 +3678,8 @@
       <c r="E33" t="s">
         <v>684</v>
       </c>
-      <c r="K33" t="s">
-        <v>547</v>
-      </c>
-      <c r="M33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -3926,15 +3695,8 @@
       <c r="E34" t="s">
         <v>685</v>
       </c>
-      <c r="K34" t="s">
-        <v>548</v>
-      </c>
-      <c r="M34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>273</v>
       </c>
@@ -3950,15 +3712,8 @@
       <c r="E35" t="s">
         <v>568</v>
       </c>
-      <c r="K35" t="s">
-        <v>842</v>
-      </c>
-      <c r="M35" t="str">
-        <f t="shared" si="0"/>
-        <v>Cleaning, Comet Disinfectant Cleaner</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>293</v>
       </c>
@@ -3974,15 +3729,8 @@
       <c r="E36" t="s">
         <v>682</v>
       </c>
-      <c r="K36" t="s">
-        <v>444</v>
-      </c>
-      <c r="M36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>145</v>
       </c>
@@ -3998,15 +3746,8 @@
       <c r="E37" t="s">
         <v>686</v>
       </c>
-      <c r="K37" t="s">
-        <v>445</v>
-      </c>
-      <c r="M37" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -4022,15 +3763,8 @@
       <c r="E38" t="s">
         <v>687</v>
       </c>
-      <c r="K38" t="s">
-        <v>446</v>
-      </c>
-      <c r="M38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -4046,15 +3780,8 @@
       <c r="E39" t="s">
         <v>654</v>
       </c>
-      <c r="K39" t="s">
-        <v>447</v>
-      </c>
-      <c r="M39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -4070,15 +3797,8 @@
       <c r="E40" t="s">
         <v>622</v>
       </c>
-      <c r="K40" t="s">
-        <v>448</v>
-      </c>
-      <c r="M40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>250</v>
       </c>
@@ -4094,15 +3814,8 @@
       <c r="E41" t="s">
         <v>762</v>
       </c>
-      <c r="K41" t="s">
-        <v>449</v>
-      </c>
-      <c r="M41" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>251</v>
       </c>
@@ -4118,15 +3831,8 @@
       <c r="E42" t="s">
         <v>763</v>
       </c>
-      <c r="K42" t="s">
-        <v>450</v>
-      </c>
-      <c r="M42" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>252</v>
       </c>
@@ -4142,15 +3848,8 @@
       <c r="E43" t="s">
         <v>764</v>
       </c>
-      <c r="K43" t="s">
-        <v>451</v>
-      </c>
-      <c r="M43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>274</v>
       </c>
@@ -4163,15 +3862,8 @@
       <c r="E44" t="s">
         <v>782</v>
       </c>
-      <c r="K44" t="s">
-        <v>549</v>
-      </c>
-      <c r="M44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>147</v>
       </c>
@@ -4187,15 +3879,8 @@
       <c r="E45" t="s">
         <v>688</v>
       </c>
-      <c r="K45" t="s">
-        <v>551</v>
-      </c>
-      <c r="M45" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>148</v>
       </c>
@@ -4211,15 +3896,8 @@
       <c r="E46" t="s">
         <v>822</v>
       </c>
-      <c r="K46" t="s">
-        <v>552</v>
-      </c>
-      <c r="M46" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -4235,15 +3913,8 @@
       <c r="E47" t="s">
         <v>689</v>
       </c>
-      <c r="K47" t="s">
-        <v>843</v>
-      </c>
-      <c r="M47" t="str">
-        <f t="shared" si="0"/>
-        <v>Container, Square 6 Quart</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>150</v>
       </c>
@@ -4259,15 +3930,8 @@
       <c r="E48" t="s">
         <v>823</v>
       </c>
-      <c r="K48" t="s">
-        <v>453</v>
-      </c>
-      <c r="M48" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -4283,15 +3947,8 @@
       <c r="E49" t="s">
         <v>825</v>
       </c>
-      <c r="K49" t="s">
-        <v>454</v>
-      </c>
-      <c r="M49" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>152</v>
       </c>
@@ -4307,15 +3964,8 @@
       <c r="E50" t="s">
         <v>824</v>
       </c>
-      <c r="K50" t="s">
-        <v>455</v>
-      </c>
-      <c r="M50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>153</v>
       </c>
@@ -4331,15 +3981,8 @@
       <c r="E51" t="s">
         <v>690</v>
       </c>
-      <c r="K51" t="s">
-        <v>553</v>
-      </c>
-      <c r="M51" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>154</v>
       </c>
@@ -4355,15 +3998,8 @@
       <c r="E52" t="s">
         <v>826</v>
       </c>
-      <c r="K52" t="s">
-        <v>554</v>
-      </c>
-      <c r="M52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>155</v>
       </c>
@@ -4379,15 +4015,8 @@
       <c r="E53" t="s">
         <v>827</v>
       </c>
-      <c r="K53" t="s">
-        <v>555</v>
-      </c>
-      <c r="M53" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -4403,15 +4032,8 @@
       <c r="E54" t="s">
         <v>616</v>
       </c>
-      <c r="K54" t="s">
-        <v>556</v>
-      </c>
-      <c r="M54" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>253</v>
       </c>
@@ -4427,15 +4049,8 @@
       <c r="E55" t="s">
         <v>765</v>
       </c>
-      <c r="K55" t="s">
-        <v>557</v>
-      </c>
-      <c r="M55" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -4451,15 +4066,8 @@
       <c r="E56" t="s">
         <v>766</v>
       </c>
-      <c r="K56" t="s">
-        <v>357</v>
-      </c>
-      <c r="M56" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>255</v>
       </c>
@@ -4475,15 +4083,8 @@
       <c r="E57" t="s">
         <v>767</v>
       </c>
-      <c r="K57" t="s">
-        <v>358</v>
-      </c>
-      <c r="M57" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>256</v>
       </c>
@@ -4499,15 +4100,8 @@
       <c r="E58" t="s">
         <v>838</v>
       </c>
-      <c r="K58" t="s">
-        <v>457</v>
-      </c>
-      <c r="M58" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>156</v>
       </c>
@@ -4517,15 +4111,8 @@
       <c r="C59">
         <v>100</v>
       </c>
-      <c r="K59" t="s">
-        <v>458</v>
-      </c>
-      <c r="M59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>157</v>
       </c>
@@ -4541,15 +4128,8 @@
       <c r="E60" t="s">
         <v>691</v>
       </c>
-      <c r="K60" t="s">
-        <v>459</v>
-      </c>
-      <c r="M60" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>158</v>
       </c>
@@ -4565,15 +4145,8 @@
       <c r="E61" t="s">
         <v>692</v>
       </c>
-      <c r="K61" t="s">
-        <v>460</v>
-      </c>
-      <c r="M61" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>159</v>
       </c>
@@ -4589,15 +4162,8 @@
       <c r="E62" t="s">
         <v>693</v>
       </c>
-      <c r="K62" t="s">
-        <v>461</v>
-      </c>
-      <c r="M62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>257</v>
       </c>
@@ -4613,15 +4179,8 @@
       <c r="E63" t="s">
         <v>769</v>
       </c>
-      <c r="K63" t="s">
-        <v>462</v>
-      </c>
-      <c r="M63" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>258</v>
       </c>
@@ -4637,15 +4196,8 @@
       <c r="E64" t="s">
         <v>768</v>
       </c>
-      <c r="K64" t="s">
-        <v>463</v>
-      </c>
-      <c r="M64" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>259</v>
       </c>
@@ -4661,15 +4213,8 @@
       <c r="E65" t="s">
         <v>839</v>
       </c>
-      <c r="K65" t="s">
-        <v>464</v>
-      </c>
-      <c r="M65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>260</v>
       </c>
@@ -4685,15 +4230,8 @@
       <c r="E66" t="s">
         <v>770</v>
       </c>
-      <c r="K66" t="s">
-        <v>465</v>
-      </c>
-      <c r="M66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>261</v>
       </c>
@@ -4709,15 +4247,8 @@
       <c r="E67" t="s">
         <v>771</v>
       </c>
-      <c r="K67" t="s">
-        <v>466</v>
-      </c>
-      <c r="M67" t="str">
-        <f t="shared" ref="M67:M130" si="1">IF(ISERROR(VLOOKUP(K67, $B$2:$B$297, 1, FALSE)), K67, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>262</v>
       </c>
@@ -4733,15 +4264,8 @@
       <c r="E68" t="s">
         <v>772</v>
       </c>
-      <c r="K68" t="s">
-        <v>560</v>
-      </c>
-      <c r="M68" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>263</v>
       </c>
@@ -4757,15 +4281,8 @@
       <c r="E69" t="s">
         <v>773</v>
       </c>
-      <c r="K69" t="s">
-        <v>301</v>
-      </c>
-      <c r="M69" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -4781,15 +4298,8 @@
       <c r="E70" t="s">
         <v>623</v>
       </c>
-      <c r="K70" t="s">
-        <v>561</v>
-      </c>
-      <c r="M70" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>61</v>
       </c>
@@ -4805,15 +4315,8 @@
       <c r="E71" t="s">
         <v>624</v>
       </c>
-      <c r="K71" t="s">
-        <v>562</v>
-      </c>
-      <c r="M71" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -4829,15 +4332,8 @@
       <c r="E72" t="s">
         <v>625</v>
       </c>
-      <c r="K72" t="s">
-        <v>563</v>
-      </c>
-      <c r="M72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>160</v>
       </c>
@@ -4847,15 +4343,8 @@
       <c r="C73">
         <v>12</v>
       </c>
-      <c r="K73" t="s">
-        <v>564</v>
-      </c>
-      <c r="M73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>161</v>
       </c>
@@ -4871,15 +4360,8 @@
       <c r="E74" t="s">
         <v>694</v>
       </c>
-      <c r="K74" t="s">
-        <v>565</v>
-      </c>
-      <c r="M74" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>162</v>
       </c>
@@ -4895,15 +4377,8 @@
       <c r="E75" t="s">
         <v>828</v>
       </c>
-      <c r="K75" t="s">
-        <v>566</v>
-      </c>
-      <c r="M75" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>163</v>
       </c>
@@ -4919,15 +4394,8 @@
       <c r="E76" t="s">
         <v>695</v>
       </c>
-      <c r="K76" t="s">
-        <v>392</v>
-      </c>
-      <c r="M76" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>164</v>
       </c>
@@ -4943,15 +4411,8 @@
       <c r="E77" t="s">
         <v>696</v>
       </c>
-      <c r="K77" t="s">
-        <v>319</v>
-      </c>
-      <c r="M77" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>165</v>
       </c>
@@ -4961,15 +4422,8 @@
       <c r="C78">
         <v>300</v>
       </c>
-      <c r="K78" t="s">
-        <v>320</v>
-      </c>
-      <c r="M78" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>166</v>
       </c>
@@ -4985,15 +4439,8 @@
       <c r="E79" t="s">
         <v>697</v>
       </c>
-      <c r="K79" t="s">
-        <v>321</v>
-      </c>
-      <c r="M79" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -5009,15 +4456,8 @@
       <c r="E80" t="s">
         <v>832</v>
       </c>
-      <c r="K80" t="s">
-        <v>322</v>
-      </c>
-      <c r="M80" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>168</v>
       </c>
@@ -5033,15 +4473,8 @@
       <c r="E81" t="s">
         <v>833</v>
       </c>
-      <c r="K81" t="s">
-        <v>323</v>
-      </c>
-      <c r="M81" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>169</v>
       </c>
@@ -5057,15 +4490,8 @@
       <c r="E82" t="s">
         <v>834</v>
       </c>
-      <c r="K82" t="s">
-        <v>324</v>
-      </c>
-      <c r="M82" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>170</v>
       </c>
@@ -5081,15 +4507,8 @@
       <c r="E83" t="s">
         <v>831</v>
       </c>
-      <c r="K83" t="s">
-        <v>325</v>
-      </c>
-      <c r="M83" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>264</v>
       </c>
@@ -5105,15 +4524,8 @@
       <c r="E84" t="s">
         <v>774</v>
       </c>
-      <c r="K84" t="s">
-        <v>326</v>
-      </c>
-      <c r="M84" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -5129,15 +4541,8 @@
       <c r="E85" t="s">
         <v>596</v>
       </c>
-      <c r="K85" t="s">
-        <v>327</v>
-      </c>
-      <c r="M85" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>265</v>
       </c>
@@ -5153,15 +4558,8 @@
       <c r="E86" t="s">
         <v>775</v>
       </c>
-      <c r="K86" t="s">
-        <v>328</v>
-      </c>
-      <c r="M86" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>266</v>
       </c>
@@ -5177,15 +4575,8 @@
       <c r="E87" t="s">
         <v>840</v>
       </c>
-      <c r="K87" t="s">
-        <v>329</v>
-      </c>
-      <c r="M87" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>267</v>
       </c>
@@ -5201,15 +4592,8 @@
       <c r="E88" t="s">
         <v>776</v>
       </c>
-      <c r="K88" t="s">
-        <v>330</v>
-      </c>
-      <c r="M88" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>268</v>
       </c>
@@ -5225,15 +4609,8 @@
       <c r="E89" t="s">
         <v>777</v>
       </c>
-      <c r="K89" t="s">
-        <v>331</v>
-      </c>
-      <c r="M89" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>269</v>
       </c>
@@ -5249,15 +4626,8 @@
       <c r="E90" t="s">
         <v>778</v>
       </c>
-      <c r="K90" t="s">
-        <v>333</v>
-      </c>
-      <c r="M90" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>270</v>
       </c>
@@ -5273,15 +4643,8 @@
       <c r="E91" t="s">
         <v>779</v>
       </c>
-      <c r="K91" t="s">
-        <v>334</v>
-      </c>
-      <c r="M91" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -5294,255 +4657,136 @@
       <c r="E92" t="s">
         <v>655</v>
       </c>
-      <c r="K92" t="s">
-        <v>364</v>
-      </c>
-      <c r="M92" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>23</v>
       </c>
       <c r="B93" t="s">
         <v>319</v>
       </c>
-      <c r="K93" t="s">
-        <v>335</v>
-      </c>
-      <c r="M93" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>24</v>
       </c>
       <c r="B94" t="s">
         <v>320</v>
       </c>
-      <c r="K94" t="s">
-        <v>369</v>
-      </c>
-      <c r="M94" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>25</v>
       </c>
       <c r="B95" t="s">
         <v>321</v>
       </c>
-      <c r="K95" t="s">
-        <v>370</v>
-      </c>
-      <c r="M95" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>26</v>
       </c>
       <c r="B96" t="s">
         <v>322</v>
       </c>
-      <c r="K96" t="s">
-        <v>371</v>
-      </c>
-      <c r="M96" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>27</v>
       </c>
       <c r="B97" t="s">
         <v>323</v>
       </c>
-      <c r="K97" t="s">
-        <v>468</v>
-      </c>
-      <c r="M97" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>28</v>
       </c>
       <c r="B98" t="s">
         <v>324</v>
       </c>
-      <c r="K98" t="s">
-        <v>393</v>
-      </c>
-      <c r="M98" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>29</v>
       </c>
       <c r="B99" t="s">
         <v>325</v>
       </c>
-      <c r="K99" t="s">
-        <v>336</v>
-      </c>
-      <c r="M99" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>30</v>
       </c>
       <c r="B100" t="s">
         <v>326</v>
       </c>
-      <c r="K100" t="s">
-        <v>337</v>
-      </c>
-      <c r="M100" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>31</v>
       </c>
       <c r="B101" t="s">
         <v>327</v>
       </c>
-      <c r="K101" t="s">
-        <v>844</v>
-      </c>
-      <c r="M101" t="str">
-        <f t="shared" si="1"/>
-        <v>Fancy, No Variety</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>32</v>
       </c>
       <c r="B102" t="s">
         <v>328</v>
       </c>
-      <c r="K102" t="s">
-        <v>339</v>
-      </c>
-      <c r="M102" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>33</v>
       </c>
       <c r="B103" t="s">
         <v>329</v>
       </c>
-      <c r="K103" t="s">
-        <v>372</v>
-      </c>
-      <c r="M103" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>34</v>
       </c>
       <c r="B104" t="s">
         <v>330</v>
       </c>
-      <c r="K104" t="s">
-        <v>471</v>
-      </c>
-      <c r="M104" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>35</v>
       </c>
       <c r="B105" t="s">
         <v>331</v>
       </c>
-      <c r="K105" t="s">
-        <v>472</v>
-      </c>
-      <c r="M105" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>36</v>
       </c>
       <c r="B106" t="s">
         <v>332</v>
       </c>
-      <c r="K106" t="s">
-        <v>473</v>
-      </c>
-      <c r="M106" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>37</v>
       </c>
       <c r="B107" t="s">
         <v>333</v>
       </c>
-      <c r="K107" t="s">
-        <v>474</v>
-      </c>
-      <c r="M107" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>38</v>
       </c>
       <c r="B108" t="s">
         <v>334</v>
       </c>
-      <c r="K108" t="s">
-        <v>475</v>
-      </c>
-      <c r="M108" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>63</v>
       </c>
@@ -5552,15 +4796,8 @@
       <c r="C109">
         <v>135</v>
       </c>
-      <c r="K109" t="s">
-        <v>477</v>
-      </c>
-      <c r="M109" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>64</v>
       </c>
@@ -5576,15 +4813,8 @@
       <c r="E110" t="s">
         <v>626</v>
       </c>
-      <c r="K110" t="s">
-        <v>302</v>
-      </c>
-      <c r="M110" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>65</v>
       </c>
@@ -5600,15 +4830,8 @@
       <c r="E111" t="s">
         <v>627</v>
       </c>
-      <c r="K111" t="s">
-        <v>303</v>
-      </c>
-      <c r="M111" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>66</v>
       </c>
@@ -5624,30 +4847,16 @@
       <c r="E112" t="s">
         <v>628</v>
       </c>
-      <c r="K112" t="s">
-        <v>479</v>
-      </c>
-      <c r="M112" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>67</v>
       </c>
       <c r="B113" t="s">
         <v>363</v>
       </c>
-      <c r="K113" t="s">
-        <v>373</v>
-      </c>
-      <c r="M113" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>68</v>
       </c>
@@ -5663,15 +4872,8 @@
       <c r="E114" t="s">
         <v>629</v>
       </c>
-      <c r="K114" t="s">
-        <v>480</v>
-      </c>
-      <c r="M114" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>69</v>
       </c>
@@ -5687,15 +4889,8 @@
       <c r="E115" t="s">
         <v>630</v>
       </c>
-      <c r="K115" t="s">
-        <v>845</v>
-      </c>
-      <c r="M115" t="str">
-        <f t="shared" si="1"/>
-        <v>Iced Coffee Lever</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>70</v>
       </c>
@@ -5711,15 +4906,8 @@
       <c r="E116" t="s">
         <v>631</v>
       </c>
-      <c r="K116" t="s">
-        <v>304</v>
-      </c>
-      <c r="M116" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>71</v>
       </c>
@@ -5735,15 +4923,8 @@
       <c r="E117" t="s">
         <v>632</v>
       </c>
-      <c r="K117" t="s">
-        <v>305</v>
-      </c>
-      <c r="M117" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>72</v>
       </c>
@@ -5759,30 +4940,16 @@
       <c r="E118" t="s">
         <v>633</v>
       </c>
-      <c r="K118" t="s">
-        <v>846</v>
-      </c>
-      <c r="M118" t="str">
-        <f t="shared" si="1"/>
-        <v>Juice, Lemonade</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>39</v>
       </c>
       <c r="B119" t="s">
         <v>335</v>
       </c>
-      <c r="K119" t="s">
-        <v>306</v>
-      </c>
-      <c r="M119" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>171</v>
       </c>
@@ -5792,15 +4959,8 @@
       <c r="C120">
         <v>540</v>
       </c>
-      <c r="K120" t="s">
-        <v>482</v>
-      </c>
-      <c r="M120" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>73</v>
       </c>
@@ -5816,15 +4976,8 @@
       <c r="E121" t="s">
         <v>634</v>
       </c>
-      <c r="K121" t="s">
-        <v>483</v>
-      </c>
-      <c r="M121" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>74</v>
       </c>
@@ -5840,15 +4993,8 @@
       <c r="E122" t="s">
         <v>635</v>
       </c>
-      <c r="K122" t="s">
-        <v>484</v>
-      </c>
-      <c r="M122" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>294</v>
       </c>
@@ -5864,15 +5010,8 @@
       <c r="E123" t="s">
         <v>798</v>
       </c>
-      <c r="K123" t="s">
-        <v>485</v>
-      </c>
-      <c r="M123" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>75</v>
       </c>
@@ -5888,15 +5027,8 @@
       <c r="E124" t="s">
         <v>636</v>
       </c>
-      <c r="K124" t="s">
-        <v>486</v>
-      </c>
-      <c r="M124" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>172</v>
       </c>
@@ -5912,15 +5044,8 @@
       <c r="E125" t="s">
         <v>698</v>
       </c>
-      <c r="K125" t="s">
-        <v>487</v>
-      </c>
-      <c r="M125" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>40</v>
       </c>
@@ -5936,15 +5061,8 @@
       <c r="E126" t="s">
         <v>807</v>
       </c>
-      <c r="K126" t="s">
-        <v>488</v>
-      </c>
-      <c r="M126" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>41</v>
       </c>
@@ -5960,15 +5078,8 @@
       <c r="E127" t="s">
         <v>610</v>
       </c>
-      <c r="K127" t="s">
-        <v>489</v>
-      </c>
-      <c r="M127" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>97</v>
       </c>
@@ -5978,15 +5089,8 @@
       <c r="C128">
         <v>24</v>
       </c>
-      <c r="K128" t="s">
-        <v>490</v>
-      </c>
-      <c r="M128" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>42</v>
       </c>
@@ -6002,15 +5106,8 @@
       <c r="E129" t="s">
         <v>611</v>
       </c>
-      <c r="K129" t="s">
-        <v>491</v>
-      </c>
-      <c r="M129" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>173</v>
       </c>
@@ -6026,15 +5123,8 @@
       <c r="E130" t="s">
         <v>699</v>
       </c>
-      <c r="K130" t="s">
-        <v>495</v>
-      </c>
-      <c r="M130" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>174</v>
       </c>
@@ -6050,15 +5140,8 @@
       <c r="E131" t="s">
         <v>700</v>
       </c>
-      <c r="K131" t="s">
-        <v>567</v>
-      </c>
-      <c r="M131" t="str">
-        <f t="shared" ref="M131:M194" si="2">IF(ISERROR(VLOOKUP(K131, $B$2:$B$297, 1, FALSE)), K131, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>43</v>
       </c>
@@ -6074,15 +5157,8 @@
       <c r="E132" t="s">
         <v>612</v>
       </c>
-      <c r="K132" t="s">
-        <v>374</v>
-      </c>
-      <c r="M132" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>76</v>
       </c>
@@ -6098,15 +5174,8 @@
       <c r="E133" t="s">
         <v>637</v>
       </c>
-      <c r="K133" t="s">
-        <v>375</v>
-      </c>
-      <c r="M133" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>175</v>
       </c>
@@ -6122,15 +5191,8 @@
       <c r="E134" t="s">
         <v>701</v>
       </c>
-      <c r="K134" t="s">
-        <v>309</v>
-      </c>
-      <c r="M134" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>176</v>
       </c>
@@ -6146,15 +5208,8 @@
       <c r="E135" t="s">
         <v>702</v>
       </c>
-      <c r="K135" t="s">
-        <v>376</v>
-      </c>
-      <c r="M135" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>177</v>
       </c>
@@ -6170,15 +5225,8 @@
       <c r="E136" t="s">
         <v>703</v>
       </c>
-      <c r="K136" t="s">
-        <v>377</v>
-      </c>
-      <c r="M136" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>178</v>
       </c>
@@ -6194,15 +5242,8 @@
       <c r="E137" t="s">
         <v>704</v>
       </c>
-      <c r="K137" t="s">
-        <v>378</v>
-      </c>
-      <c r="M137" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>179</v>
       </c>
@@ -6218,15 +5259,8 @@
       <c r="E138" t="s">
         <v>705</v>
       </c>
-      <c r="K138" t="s">
-        <v>342</v>
-      </c>
-      <c r="M138" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>180</v>
       </c>
@@ -6236,15 +5270,8 @@
       <c r="C139">
         <v>1</v>
       </c>
-      <c r="K139" t="s">
-        <v>343</v>
-      </c>
-      <c r="M139" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>181</v>
       </c>
@@ -6260,15 +5287,8 @@
       <c r="E140" t="s">
         <v>706</v>
       </c>
-      <c r="K140" t="s">
-        <v>344</v>
-      </c>
-      <c r="M140" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>182</v>
       </c>
@@ -6284,15 +5304,8 @@
       <c r="E141" t="s">
         <v>707</v>
       </c>
-      <c r="K141" t="s">
-        <v>345</v>
-      </c>
-      <c r="M141" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -6308,15 +5321,8 @@
       <c r="E142" t="s">
         <v>597</v>
       </c>
-      <c r="K142" t="s">
-        <v>346</v>
-      </c>
-      <c r="M142" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -6332,15 +5338,8 @@
       <c r="E143" t="s">
         <v>598</v>
       </c>
-      <c r="K143" t="s">
-        <v>572</v>
-      </c>
-      <c r="M143" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>183</v>
       </c>
@@ -6356,15 +5355,8 @@
       <c r="E144" t="s">
         <v>708</v>
       </c>
-      <c r="K144" t="s">
-        <v>576</v>
-      </c>
-      <c r="M144" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>77</v>
       </c>
@@ -6380,15 +5372,8 @@
       <c r="E145" t="s">
         <v>638</v>
       </c>
-      <c r="K145" t="s">
-        <v>847</v>
-      </c>
-      <c r="M145" t="str">
-        <f t="shared" si="2"/>
-        <v>Pan 1/6 size Lid Cambro</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>275</v>
       </c>
@@ -6404,15 +5389,8 @@
       <c r="E146" t="s">
         <v>783</v>
       </c>
-      <c r="K146" t="s">
-        <v>574</v>
-      </c>
-      <c r="M146" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>184</v>
       </c>
@@ -6428,15 +5406,8 @@
       <c r="E147" t="s">
         <v>709</v>
       </c>
-      <c r="K147" t="s">
-        <v>504</v>
-      </c>
-      <c r="M147" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>44</v>
       </c>
@@ -6452,15 +5423,8 @@
       <c r="E148" t="s">
         <v>613</v>
       </c>
-      <c r="K148" t="s">
-        <v>401</v>
-      </c>
-      <c r="M148" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -6476,15 +5440,8 @@
       <c r="E149" t="s">
         <v>599</v>
       </c>
-      <c r="K149" t="s">
-        <v>403</v>
-      </c>
-      <c r="M149" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -6500,15 +5457,8 @@
       <c r="E150" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="K150" t="s">
-        <v>405</v>
-      </c>
-      <c r="M150" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -6524,15 +5474,8 @@
       <c r="E151" t="s">
         <v>600</v>
       </c>
-      <c r="K151" t="s">
-        <v>406</v>
-      </c>
-      <c r="M151" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>98</v>
       </c>
@@ -6548,15 +5491,8 @@
       <c r="E152" t="s">
         <v>656</v>
       </c>
-      <c r="K152" t="s">
-        <v>385</v>
-      </c>
-      <c r="M152" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>99</v>
       </c>
@@ -6572,15 +5508,8 @@
       <c r="E153" t="s">
         <v>657</v>
       </c>
-      <c r="K153" t="s">
-        <v>848</v>
-      </c>
-      <c r="M153" t="str">
-        <f t="shared" si="2"/>
-        <v>Shaker Cinn Sugar</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>100</v>
       </c>
@@ -6596,15 +5525,8 @@
       <c r="E154" t="s">
         <v>658</v>
       </c>
-      <c r="K154" t="s">
-        <v>505</v>
-      </c>
-      <c r="M154" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>101</v>
       </c>
@@ -6620,15 +5542,8 @@
       <c r="E155" t="s">
         <v>659</v>
       </c>
-      <c r="K155" t="s">
-        <v>506</v>
-      </c>
-      <c r="M155" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>185</v>
       </c>
@@ -6644,15 +5559,8 @@
       <c r="E156" t="s">
         <v>710</v>
       </c>
-      <c r="K156" t="s">
-        <v>849</v>
-      </c>
-      <c r="M156" t="str">
-        <f t="shared" si="2"/>
-        <v>Soda, Coke</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>276</v>
       </c>
@@ -6668,15 +5576,8 @@
       <c r="E157" t="s">
         <v>784</v>
       </c>
-      <c r="K157" t="s">
-        <v>312</v>
-      </c>
-      <c r="M157" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>186</v>
       </c>
@@ -6692,15 +5593,8 @@
       <c r="E158" t="s">
         <v>711</v>
       </c>
-      <c r="K158" t="s">
-        <v>313</v>
-      </c>
-      <c r="M158" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>187</v>
       </c>
@@ -6716,15 +5610,8 @@
       <c r="E159" t="s">
         <v>712</v>
       </c>
-      <c r="K159" t="s">
-        <v>314</v>
-      </c>
-      <c r="M159" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>188</v>
       </c>
@@ -6740,15 +5627,8 @@
       <c r="E160" t="s">
         <v>713</v>
       </c>
-      <c r="K160" t="s">
-        <v>315</v>
-      </c>
-      <c r="M160" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>189</v>
       </c>
@@ -6758,15 +5638,8 @@
       <c r="C161">
         <v>600</v>
       </c>
-      <c r="K161" t="s">
-        <v>316</v>
-      </c>
-      <c r="M161" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>190</v>
       </c>
@@ -6782,15 +5655,8 @@
       <c r="E162" t="s">
         <v>829</v>
       </c>
-      <c r="K162" t="s">
-        <v>387</v>
-      </c>
-      <c r="M162" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>191</v>
       </c>
@@ -6806,15 +5672,8 @@
       <c r="E163" t="s">
         <v>830</v>
       </c>
-      <c r="K163" t="s">
-        <v>388</v>
-      </c>
-      <c r="M163" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>192</v>
       </c>
@@ -6830,15 +5689,8 @@
       <c r="E164" t="s">
         <v>714</v>
       </c>
-      <c r="K164" t="s">
-        <v>511</v>
-      </c>
-      <c r="M164" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>193</v>
       </c>
@@ -6854,15 +5706,8 @@
       <c r="E165" t="s">
         <v>715</v>
       </c>
-      <c r="K165" t="s">
-        <v>850</v>
-      </c>
-      <c r="M165" t="str">
-        <f t="shared" si="2"/>
-        <v>Sweetener, Honey</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>194</v>
       </c>
@@ -6878,15 +5723,8 @@
       <c r="E166" t="s">
         <v>836</v>
       </c>
-      <c r="K166" t="s">
-        <v>513</v>
-      </c>
-      <c r="M166" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>195</v>
       </c>
@@ -6902,15 +5740,8 @@
       <c r="E167" t="s">
         <v>835</v>
       </c>
-      <c r="K167" t="s">
-        <v>514</v>
-      </c>
-      <c r="M167" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>196</v>
       </c>
@@ -6926,15 +5757,8 @@
       <c r="E168" t="s">
         <v>716</v>
       </c>
-      <c r="K168" t="s">
-        <v>515</v>
-      </c>
-      <c r="M168" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>197</v>
       </c>
@@ -6950,15 +5774,8 @@
       <c r="E169" t="s">
         <v>717</v>
       </c>
-      <c r="K169" t="s">
-        <v>516</v>
-      </c>
-      <c r="M169" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>198</v>
       </c>
@@ -6974,15 +5791,8 @@
       <c r="E170" t="s">
         <v>718</v>
       </c>
-      <c r="K170" t="s">
-        <v>517</v>
-      </c>
-      <c r="M170" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>199</v>
       </c>
@@ -6998,15 +5808,8 @@
       <c r="E171" t="s">
         <v>719</v>
       </c>
-      <c r="K171" t="s">
-        <v>518</v>
-      </c>
-      <c r="M171" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>271</v>
       </c>
@@ -7022,15 +5825,8 @@
       <c r="E172" t="s">
         <v>780</v>
       </c>
-      <c r="K172" t="s">
-        <v>519</v>
-      </c>
-      <c r="M172" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>78</v>
       </c>
@@ -7046,15 +5842,8 @@
       <c r="E173" t="s">
         <v>639</v>
       </c>
-      <c r="K173" t="s">
-        <v>520</v>
-      </c>
-      <c r="M173" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>79</v>
       </c>
@@ -7070,15 +5859,8 @@
       <c r="E174" t="s">
         <v>640</v>
       </c>
-      <c r="K174" t="s">
-        <v>521</v>
-      </c>
-      <c r="M174" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>45</v>
       </c>
@@ -7094,15 +5876,8 @@
       <c r="E175" t="s">
         <v>614</v>
       </c>
-      <c r="K175" t="s">
-        <v>523</v>
-      </c>
-      <c r="M175" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -7118,15 +5893,8 @@
       <c r="E176" t="s">
         <v>601</v>
       </c>
-      <c r="K176" t="s">
-        <v>524</v>
-      </c>
-      <c r="M176" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>12</v>
       </c>
@@ -7142,15 +5910,8 @@
       <c r="E177" t="s">
         <v>602</v>
       </c>
-      <c r="K177" t="s">
-        <v>525</v>
-      </c>
-      <c r="M177" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>13</v>
       </c>
@@ -7160,30 +5921,16 @@
       <c r="C178">
         <v>20</v>
       </c>
-      <c r="K178" t="s">
-        <v>526</v>
-      </c>
-      <c r="M178" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>200</v>
       </c>
       <c r="B179" t="s">
         <v>496</v>
       </c>
-      <c r="K179" t="s">
-        <v>527</v>
-      </c>
-      <c r="M179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>80</v>
       </c>
@@ -7199,15 +5946,8 @@
       <c r="E180" t="s">
         <v>641</v>
       </c>
-      <c r="K180" t="s">
-        <v>528</v>
-      </c>
-      <c r="M180" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>81</v>
       </c>
@@ -7223,15 +5963,8 @@
       <c r="E181" t="s">
         <v>642</v>
       </c>
-      <c r="K181" t="s">
-        <v>529</v>
-      </c>
-      <c r="M181" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>82</v>
       </c>
@@ -7247,90 +5980,48 @@
       <c r="E182" t="s">
         <v>643</v>
       </c>
-      <c r="K182" t="s">
-        <v>530</v>
-      </c>
-      <c r="M182" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>102</v>
       </c>
       <c r="B183" t="s">
         <v>398</v>
       </c>
-      <c r="K183" t="s">
-        <v>531</v>
-      </c>
-      <c r="M183" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>46</v>
       </c>
       <c r="B184" t="s">
         <v>342</v>
       </c>
-      <c r="K184" t="s">
-        <v>532</v>
-      </c>
-      <c r="M184" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>47</v>
       </c>
       <c r="B185" t="s">
         <v>343</v>
       </c>
-      <c r="K185" t="s">
-        <v>533</v>
-      </c>
-      <c r="M185" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>48</v>
       </c>
       <c r="B186" t="s">
         <v>344</v>
       </c>
-      <c r="K186" t="s">
-        <v>534</v>
-      </c>
-      <c r="M186" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>49</v>
       </c>
       <c r="B187" t="s">
         <v>345</v>
       </c>
-      <c r="K187" t="s">
-        <v>535</v>
-      </c>
-      <c r="M187" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>83</v>
       </c>
@@ -7346,15 +6037,8 @@
       <c r="E188" t="s">
         <v>644</v>
       </c>
-      <c r="K188" t="s">
-        <v>536</v>
-      </c>
-      <c r="M188" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>84</v>
       </c>
@@ -7370,15 +6054,8 @@
       <c r="E189" t="s">
         <v>645</v>
       </c>
-      <c r="K189" t="s">
-        <v>537</v>
-      </c>
-      <c r="M189" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>85</v>
       </c>
@@ -7394,15 +6071,8 @@
       <c r="E190" t="s">
         <v>646</v>
       </c>
-      <c r="K190" t="s">
-        <v>851</v>
-      </c>
-      <c r="M190" t="str">
-        <f t="shared" si="2"/>
-        <v>Tea, Chamomile</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>86</v>
       </c>
@@ -7418,15 +6088,8 @@
       <c r="E191" t="s">
         <v>647</v>
       </c>
-      <c r="K191" t="s">
-        <v>538</v>
-      </c>
-      <c r="M191" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>87</v>
       </c>
@@ -7442,30 +6105,16 @@
       <c r="E192" t="s">
         <v>648</v>
       </c>
-      <c r="K192" t="s">
-        <v>539</v>
-      </c>
-      <c r="M192" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>50</v>
       </c>
       <c r="B193" t="s">
         <v>346</v>
       </c>
-      <c r="K193" t="s">
-        <v>540</v>
-      </c>
-      <c r="M193" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>201</v>
       </c>
@@ -7481,30 +6130,16 @@
       <c r="E194" t="s">
         <v>720</v>
       </c>
-      <c r="K194" t="s">
-        <v>852</v>
-      </c>
-      <c r="M194" t="str">
-        <f t="shared" si="2"/>
-        <v>Tea, Hibiscus Kiss</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>277</v>
       </c>
       <c r="B195" t="s">
         <v>572</v>
       </c>
-      <c r="K195" t="s">
-        <v>541</v>
-      </c>
-      <c r="M195" t="str">
-        <f t="shared" ref="M195:M258" si="3">IF(ISERROR(VLOOKUP(K195, $B$2:$B$297, 1, FALSE)), K195, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>202</v>
       </c>
@@ -7520,15 +6155,8 @@
       <c r="E196" t="s">
         <v>721</v>
       </c>
-      <c r="K196" t="s">
-        <v>542</v>
-      </c>
-      <c r="M196" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>103</v>
       </c>
@@ -7538,15 +6166,8 @@
       <c r="C197">
         <v>12</v>
       </c>
-      <c r="K197" t="s">
-        <v>853</v>
-      </c>
-      <c r="M197" t="str">
-        <f t="shared" si="3"/>
-        <v>Toilet Tissue Jumbo  12 per case</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>278</v>
       </c>
@@ -7559,15 +6180,8 @@
       <c r="E198" t="s">
         <v>785</v>
       </c>
-      <c r="K198" t="s">
-        <v>389</v>
-      </c>
-      <c r="M198" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>203</v>
       </c>
@@ -7583,15 +6197,8 @@
       <c r="E199" t="s">
         <v>722</v>
       </c>
-      <c r="K199" t="s">
-        <v>583</v>
-      </c>
-      <c r="M199" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>204</v>
       </c>
@@ -7607,15 +6214,8 @@
       <c r="E200" t="s">
         <v>723</v>
       </c>
-      <c r="K200" t="s">
-        <v>584</v>
-      </c>
-      <c r="M200" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>205</v>
       </c>
@@ -7631,15 +6231,8 @@
       <c r="E201" t="s">
         <v>724</v>
       </c>
-      <c r="K201" t="s">
-        <v>593</v>
-      </c>
-      <c r="M201" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>88</v>
       </c>
@@ -7655,15 +6248,8 @@
       <c r="E202" t="s">
         <v>649</v>
       </c>
-      <c r="K202" t="s">
-        <v>595</v>
-      </c>
-      <c r="M202" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>279</v>
       </c>
@@ -7676,15 +6262,8 @@
       <c r="E203" t="s">
         <v>786</v>
       </c>
-      <c r="K203" t="s">
-        <v>854</v>
-      </c>
-      <c r="M203" t="str">
-        <f t="shared" si="3"/>
-        <v>Tumbler, Sipper Acrylic Chiseled Ice 24oz</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>206</v>
       </c>
@@ -7700,15 +6279,8 @@
       <c r="E204" t="s">
         <v>725</v>
       </c>
-      <c r="K204" t="s">
-        <v>855</v>
-      </c>
-      <c r="M204" t="str">
-        <f t="shared" si="3"/>
-        <v>Tumbler, Stainless Ion 18oz</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>207</v>
       </c>
@@ -7724,15 +6296,8 @@
       <c r="E205" t="s">
         <v>726</v>
       </c>
-      <c r="K205" t="s">
-        <v>543</v>
-      </c>
-      <c r="M205" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>208</v>
       </c>
@@ -7748,15 +6313,8 @@
       <c r="E206" t="s">
         <v>727</v>
       </c>
-      <c r="K206" t="s">
-        <v>586</v>
-      </c>
-      <c r="M206" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>280</v>
       </c>
@@ -7769,15 +6327,8 @@
       <c r="E207" t="s">
         <v>787</v>
       </c>
-      <c r="K207" t="s">
-        <v>317</v>
-      </c>
-      <c r="M207" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>281</v>
       </c>
@@ -7790,15 +6341,8 @@
       <c r="E208" t="s">
         <v>788</v>
       </c>
-      <c r="K208" t="s">
-        <v>856</v>
-      </c>
-      <c r="M208" t="str">
-        <f t="shared" si="3"/>
-        <v>Water, Sparkling</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>282</v>
       </c>
@@ -7811,15 +6355,8 @@
       <c r="E209" t="s">
         <v>789</v>
       </c>
-      <c r="K209" t="s">
-        <v>857</v>
-      </c>
-      <c r="M209" t="str">
-        <f t="shared" si="3"/>
-        <v>Bagel Topping, Multigrain</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>104</v>
       </c>
@@ -7829,15 +6366,8 @@
       <c r="C210">
         <v>12</v>
       </c>
-      <c r="K210" t="s">
-        <v>569</v>
-      </c>
-      <c r="M210" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>105</v>
       </c>
@@ -7853,15 +6383,8 @@
       <c r="E211" t="s">
         <v>810</v>
       </c>
-      <c r="K211" t="s">
-        <v>348</v>
-      </c>
-      <c r="M211" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>106</v>
       </c>
@@ -7877,15 +6400,8 @@
       <c r="E212" t="s">
         <v>812</v>
       </c>
-      <c r="K212" t="s">
-        <v>858</v>
-      </c>
-      <c r="M212" t="str">
-        <f t="shared" si="3"/>
-        <v>Egg, Mini Veggie EW Bites</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>107</v>
       </c>
@@ -7901,15 +6417,8 @@
       <c r="E213" t="s">
         <v>811</v>
       </c>
-      <c r="K213" t="s">
-        <v>859</v>
-      </c>
-      <c r="M213" t="str">
-        <f t="shared" si="3"/>
-        <v>Finishing, Sanding Sugar</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>108</v>
       </c>
@@ -7925,15 +6434,8 @@
       <c r="E214" t="s">
         <v>813</v>
       </c>
-      <c r="K214" t="s">
-        <v>476</v>
-      </c>
-      <c r="M214" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>109</v>
       </c>
@@ -7949,15 +6451,8 @@
       <c r="E215" t="s">
         <v>814</v>
       </c>
-      <c r="K215" t="s">
-        <v>340</v>
-      </c>
-      <c r="M215" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>110</v>
       </c>
@@ -7973,15 +6468,8 @@
       <c r="E216" t="s">
         <v>815</v>
       </c>
-      <c r="K216" t="s">
-        <v>860</v>
-      </c>
-      <c r="M216" t="str">
-        <f t="shared" si="3"/>
-        <v>Icing, Strawberry</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>283</v>
       </c>
@@ -7994,15 +6482,8 @@
       <c r="E217" t="s">
         <v>790</v>
       </c>
-      <c r="K217" t="s">
-        <v>396</v>
-      </c>
-      <c r="M217" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>89</v>
       </c>
@@ -8018,15 +6499,8 @@
       <c r="E218" t="s">
         <v>650</v>
       </c>
-      <c r="K218" t="s">
-        <v>571</v>
-      </c>
-      <c r="M218" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>14</v>
       </c>
@@ -8039,15 +6513,8 @@
       <c r="E219" t="s">
         <v>603</v>
       </c>
-      <c r="K219" t="s">
-        <v>861</v>
-      </c>
-      <c r="M219" t="str">
-        <f t="shared" si="3"/>
-        <v>Milk, 14oz 1%</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>284</v>
       </c>
@@ -8060,15 +6527,8 @@
       <c r="E220" t="s">
         <v>579</v>
       </c>
-      <c r="K220" t="s">
-        <v>307</v>
-      </c>
-      <c r="M220" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>90</v>
       </c>
@@ -8078,15 +6538,8 @@
       <c r="C221">
         <v>12</v>
       </c>
-      <c r="K221" t="s">
-        <v>308</v>
-      </c>
-      <c r="M221" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>209</v>
       </c>
@@ -8102,15 +6555,8 @@
       <c r="E222" t="s">
         <v>728</v>
       </c>
-      <c r="K222" t="s">
-        <v>573</v>
-      </c>
-      <c r="M222" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>210</v>
       </c>
@@ -8126,15 +6572,8 @@
       <c r="E223" t="s">
         <v>729</v>
       </c>
-      <c r="K223" t="s">
-        <v>862</v>
-      </c>
-      <c r="M223" t="str">
-        <f t="shared" si="3"/>
-        <v>PG Dawn Dish Detergent Gallon</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>15</v>
       </c>
@@ -8144,15 +6583,8 @@
       <c r="C224">
         <v>24</v>
       </c>
-      <c r="K224" t="s">
-        <v>577</v>
-      </c>
-      <c r="M224" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>16</v>
       </c>
@@ -8168,15 +6600,8 @@
       <c r="E225" t="s">
         <v>604</v>
       </c>
-      <c r="K225" t="s">
-        <v>499</v>
-      </c>
-      <c r="M225" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>17</v>
       </c>
@@ -8192,15 +6617,8 @@
       <c r="E226" t="s">
         <v>605</v>
       </c>
-      <c r="K226" t="s">
-        <v>402</v>
-      </c>
-      <c r="M226" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>295</v>
       </c>
@@ -8216,15 +6634,8 @@
       <c r="E227" t="s">
         <v>799</v>
       </c>
-      <c r="K227" t="s">
-        <v>404</v>
-      </c>
-      <c r="M227" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>18</v>
       </c>
@@ -8240,15 +6651,8 @@
       <c r="E228" t="s">
         <v>606</v>
       </c>
-      <c r="K228" t="s">
-        <v>578</v>
-      </c>
-      <c r="M228" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>19</v>
       </c>
@@ -8264,15 +6668,8 @@
       <c r="E229" t="s">
         <v>607</v>
       </c>
-      <c r="K229" t="s">
-        <v>579</v>
-      </c>
-      <c r="M229" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>20</v>
       </c>
@@ -8288,15 +6685,8 @@
       <c r="E230" t="s">
         <v>608</v>
       </c>
-      <c r="K230" t="s">
-        <v>580</v>
-      </c>
-      <c r="M230" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>211</v>
       </c>
@@ -8306,15 +6696,8 @@
       <c r="C231">
         <v>1</v>
       </c>
-      <c r="K231" t="s">
-        <v>863</v>
-      </c>
-      <c r="M231" t="str">
-        <f t="shared" si="3"/>
-        <v>Straws, Toppers Cup Charms</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>212</v>
       </c>
@@ -8327,15 +6710,8 @@
       <c r="E232" t="s">
         <v>730</v>
       </c>
-      <c r="K232" t="s">
-        <v>864</v>
-      </c>
-      <c r="M232" t="str">
-        <f t="shared" si="3"/>
-        <v>Swirl, Candy Bar</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>51</v>
       </c>
@@ -8351,15 +6727,8 @@
       <c r="E233" t="s">
         <v>615</v>
       </c>
-      <c r="K233" t="s">
-        <v>865</v>
-      </c>
-      <c r="M233" t="str">
-        <f t="shared" si="3"/>
-        <v>Swirl, Sweetened Condensed Milk</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>285</v>
       </c>
@@ -8372,15 +6741,8 @@
       <c r="E234" t="s">
         <v>791</v>
       </c>
-      <c r="K234" t="s">
-        <v>866</v>
-      </c>
-      <c r="M234" t="str">
-        <f t="shared" si="3"/>
-        <v>Tea, Iced Berry Hibiscus</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>91</v>
       </c>
@@ -8396,15 +6758,8 @@
       <c r="E235" t="s">
         <v>651</v>
       </c>
-      <c r="K235" t="s">
-        <v>581</v>
-      </c>
-      <c r="M235" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>213</v>
       </c>
@@ -8420,15 +6775,8 @@
       <c r="E236" t="s">
         <v>731</v>
       </c>
-      <c r="K236" t="s">
-        <v>408</v>
-      </c>
-      <c r="M236" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>214</v>
       </c>
@@ -8444,15 +6792,8 @@
       <c r="E237" t="s">
         <v>732</v>
       </c>
-      <c r="K237" t="s">
-        <v>587</v>
-      </c>
-      <c r="M237" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>92</v>
       </c>
@@ -8468,15 +6809,8 @@
       <c r="E238" t="s">
         <v>652</v>
       </c>
-      <c r="K238" t="s">
-        <v>417</v>
-      </c>
-      <c r="M238" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>111</v>
       </c>
@@ -8492,15 +6826,8 @@
       <c r="E239" t="s">
         <v>660</v>
       </c>
-      <c r="K239" t="s">
-        <v>418</v>
-      </c>
-      <c r="M239" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>215</v>
       </c>
@@ -8510,15 +6837,8 @@
       <c r="C240">
         <v>10</v>
       </c>
-      <c r="K240" t="s">
-        <v>419</v>
-      </c>
-      <c r="M240" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>216</v>
       </c>
@@ -8534,15 +6854,8 @@
       <c r="E241" t="s">
         <v>733</v>
       </c>
-      <c r="K241" t="s">
-        <v>420</v>
-      </c>
-      <c r="M241" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>217</v>
       </c>
@@ -8552,15 +6865,8 @@
       <c r="C242">
         <v>6</v>
       </c>
-      <c r="K242" t="s">
-        <v>421</v>
-      </c>
-      <c r="M242" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>218</v>
       </c>
@@ -8576,15 +6882,8 @@
       <c r="E243" t="s">
         <v>734</v>
       </c>
-      <c r="K243" t="s">
-        <v>431</v>
-      </c>
-      <c r="M243" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>219</v>
       </c>
@@ -8600,15 +6899,8 @@
       <c r="E244" t="s">
         <v>735</v>
       </c>
-      <c r="K244" t="s">
-        <v>442</v>
-      </c>
-      <c r="M244" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>220</v>
       </c>
@@ -8624,15 +6916,8 @@
       <c r="E245" t="s">
         <v>736</v>
       </c>
-      <c r="K245" t="s">
-        <v>443</v>
-      </c>
-      <c r="M245" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>221</v>
       </c>
@@ -8642,15 +6927,8 @@
       <c r="C246">
         <v>1</v>
       </c>
-      <c r="K246" t="s">
-        <v>550</v>
-      </c>
-      <c r="M246" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>222</v>
       </c>
@@ -8666,15 +6944,8 @@
       <c r="E247" t="s">
         <v>737</v>
       </c>
-      <c r="K247" t="s">
-        <v>452</v>
-      </c>
-      <c r="M247" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>223</v>
       </c>
@@ -8690,15 +6961,8 @@
       <c r="E248" t="s">
         <v>738</v>
       </c>
-      <c r="K248" t="s">
-        <v>558</v>
-      </c>
-      <c r="M248" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>224</v>
       </c>
@@ -8714,15 +6978,8 @@
       <c r="E249" t="s">
         <v>739</v>
       </c>
-      <c r="K249" t="s">
-        <v>559</v>
-      </c>
-      <c r="M249" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>225</v>
       </c>
@@ -8738,15 +6995,8 @@
       <c r="E250" t="s">
         <v>837</v>
       </c>
-      <c r="K250" t="s">
-        <v>356</v>
-      </c>
-      <c r="M250" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>226</v>
       </c>
@@ -8762,15 +7012,8 @@
       <c r="E251" t="s">
         <v>740</v>
       </c>
-      <c r="K251" t="s">
-        <v>456</v>
-      </c>
-      <c r="M251" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>227</v>
       </c>
@@ -8786,15 +7029,8 @@
       <c r="E252" t="s">
         <v>741</v>
       </c>
-      <c r="K252" t="s">
-        <v>359</v>
-      </c>
-      <c r="M252" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>228</v>
       </c>
@@ -8810,15 +7046,8 @@
       <c r="E253" t="s">
         <v>742</v>
       </c>
-      <c r="K253" t="s">
-        <v>360</v>
-      </c>
-      <c r="M253" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>229</v>
       </c>
@@ -8831,15 +7060,8 @@
       <c r="E254" t="s">
         <v>743</v>
       </c>
-      <c r="K254" t="s">
-        <v>361</v>
-      </c>
-      <c r="M254" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>230</v>
       </c>
@@ -8855,15 +7077,8 @@
       <c r="E255" t="s">
         <v>744</v>
       </c>
-      <c r="K255" t="s">
-        <v>362</v>
-      </c>
-      <c r="M255" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>231</v>
       </c>
@@ -8879,15 +7094,8 @@
       <c r="E256" t="s">
         <v>745</v>
       </c>
-      <c r="K256" t="s">
-        <v>363</v>
-      </c>
-      <c r="M256" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>232</v>
       </c>
@@ -8903,15 +7111,8 @@
       <c r="E257" t="s">
         <v>746</v>
       </c>
-      <c r="K257" t="s">
-        <v>365</v>
-      </c>
-      <c r="M257" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>233</v>
       </c>
@@ -8921,15 +7122,8 @@
       <c r="C258">
         <v>4</v>
       </c>
-      <c r="K258" t="s">
-        <v>366</v>
-      </c>
-      <c r="M258" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>234</v>
       </c>
@@ -8945,15 +7139,8 @@
       <c r="E259" t="s">
         <v>747</v>
       </c>
-      <c r="K259" t="s">
-        <v>367</v>
-      </c>
-      <c r="M259" t="str">
-        <f t="shared" ref="M259:M322" si="4">IF(ISERROR(VLOOKUP(K259, $B$2:$B$297, 1, FALSE)), K259, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>235</v>
       </c>
@@ -8969,15 +7156,8 @@
       <c r="E260" t="s">
         <v>748</v>
       </c>
-      <c r="K260" t="s">
-        <v>368</v>
-      </c>
-      <c r="M260" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>236</v>
       </c>
@@ -8993,15 +7173,8 @@
       <c r="E261" t="s">
         <v>749</v>
       </c>
-      <c r="K261" t="s">
-        <v>338</v>
-      </c>
-      <c r="M261" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>237</v>
       </c>
@@ -9017,15 +7190,8 @@
       <c r="E262" t="s">
         <v>750</v>
       </c>
-      <c r="K262" t="s">
-        <v>469</v>
-      </c>
-      <c r="M262" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>238</v>
       </c>
@@ -9041,15 +7207,8 @@
       <c r="E263" t="s">
         <v>751</v>
       </c>
-      <c r="K263" t="s">
-        <v>470</v>
-      </c>
-      <c r="M263" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>239</v>
       </c>
@@ -9065,15 +7224,8 @@
       <c r="E264" t="s">
         <v>752</v>
       </c>
-      <c r="K264" t="s">
-        <v>394</v>
-      </c>
-      <c r="M264" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>296</v>
       </c>
@@ -9089,15 +7241,8 @@
       <c r="E265" t="s">
         <v>800</v>
       </c>
-      <c r="K265" t="s">
-        <v>395</v>
-      </c>
-      <c r="M265" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>240</v>
       </c>
@@ -9113,15 +7258,8 @@
       <c r="E266" t="s">
         <v>753</v>
       </c>
-      <c r="K266" t="s">
-        <v>397</v>
-      </c>
-      <c r="M266" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>241</v>
       </c>
@@ -9137,15 +7275,8 @@
       <c r="E267" t="s">
         <v>754</v>
       </c>
-      <c r="K267" t="s">
-        <v>492</v>
-      </c>
-      <c r="M267" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>242</v>
       </c>
@@ -9161,15 +7292,8 @@
       <c r="E268" t="s">
         <v>755</v>
       </c>
-      <c r="K268" t="s">
-        <v>493</v>
-      </c>
-      <c r="M268" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>243</v>
       </c>
@@ -9185,15 +7309,8 @@
       <c r="E269" t="s">
         <v>756</v>
       </c>
-      <c r="K269" t="s">
-        <v>494</v>
-      </c>
-      <c r="M269" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>244</v>
       </c>
@@ -9209,15 +7326,8 @@
       <c r="E270" t="s">
         <v>757</v>
       </c>
-      <c r="K270" t="s">
-        <v>341</v>
-      </c>
-      <c r="M270" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>245</v>
       </c>
@@ -9233,15 +7343,8 @@
       <c r="E271" t="s">
         <v>758</v>
       </c>
-      <c r="K271" t="s">
-        <v>496</v>
-      </c>
-      <c r="M271" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>246</v>
       </c>
@@ -9257,15 +7360,8 @@
       <c r="E272" t="s">
         <v>759</v>
       </c>
-      <c r="K272" t="s">
-        <v>398</v>
-      </c>
-      <c r="M272" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>286</v>
       </c>
@@ -9278,15 +7374,8 @@
       <c r="E273" t="s">
         <v>792</v>
       </c>
-      <c r="K273" t="s">
-        <v>379</v>
-      </c>
-      <c r="M273" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>287</v>
       </c>
@@ -9299,15 +7388,8 @@
       <c r="E274" t="s">
         <v>582</v>
       </c>
-      <c r="K274" t="s">
-        <v>380</v>
-      </c>
-      <c r="M274" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>93</v>
       </c>
@@ -9323,15 +7405,8 @@
       <c r="E275" t="s">
         <v>809</v>
       </c>
-      <c r="K275" t="s">
-        <v>382</v>
-      </c>
-      <c r="M275" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>288</v>
       </c>
@@ -9344,15 +7419,8 @@
       <c r="E276" t="s">
         <v>793</v>
       </c>
-      <c r="K276" t="s">
-        <v>383</v>
-      </c>
-      <c r="M276" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>289</v>
       </c>
@@ -9365,15 +7433,8 @@
       <c r="E277" t="s">
         <v>794</v>
       </c>
-      <c r="K277" t="s">
-        <v>497</v>
-      </c>
-      <c r="M277" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>112</v>
       </c>
@@ -9389,15 +7450,8 @@
       <c r="E278" t="s">
         <v>661</v>
       </c>
-      <c r="K278" t="s">
-        <v>399</v>
-      </c>
-      <c r="M278" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>113</v>
       </c>
@@ -9413,15 +7467,8 @@
       <c r="E279" t="s">
         <v>662</v>
       </c>
-      <c r="K279" t="s">
-        <v>575</v>
-      </c>
-      <c r="M279" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>114</v>
       </c>
@@ -9437,15 +7484,8 @@
       <c r="E280" t="s">
         <v>663</v>
       </c>
-      <c r="K280" t="s">
-        <v>384</v>
-      </c>
-      <c r="M280" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>115</v>
       </c>
@@ -9461,15 +7501,8 @@
       <c r="E281" t="s">
         <v>664</v>
       </c>
-      <c r="K281" t="s">
-        <v>502</v>
-      </c>
-      <c r="M281" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>116</v>
       </c>
@@ -9485,15 +7518,8 @@
       <c r="E282" t="s">
         <v>665</v>
       </c>
-      <c r="K282" t="s">
-        <v>386</v>
-      </c>
-      <c r="M282" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>117</v>
       </c>
@@ -9509,15 +7535,8 @@
       <c r="E283" t="s">
         <v>666</v>
       </c>
-      <c r="K283" t="s">
-        <v>311</v>
-      </c>
-      <c r="M283" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>297</v>
       </c>
@@ -9530,15 +7549,8 @@
       <c r="E284" t="s">
         <v>801</v>
       </c>
-      <c r="K284" t="s">
-        <v>590</v>
-      </c>
-      <c r="M284" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>298</v>
       </c>
@@ -9554,15 +7566,8 @@
       <c r="E285" t="s">
         <v>802</v>
       </c>
-      <c r="K285" t="s">
-        <v>508</v>
-      </c>
-      <c r="M285" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>118</v>
       </c>
@@ -9578,15 +7583,8 @@
       <c r="E286" t="s">
         <v>667</v>
       </c>
-      <c r="K286" t="s">
-        <v>509</v>
-      </c>
-      <c r="M286" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>299</v>
       </c>
@@ -9599,15 +7597,8 @@
       <c r="E287" t="s">
         <v>803</v>
       </c>
-      <c r="K287" t="s">
-        <v>510</v>
-      </c>
-      <c r="M287" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>119</v>
       </c>
@@ -9617,15 +7608,8 @@
       <c r="C288">
         <v>6</v>
       </c>
-      <c r="K288" t="s">
-        <v>407</v>
-      </c>
-      <c r="M288" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>300</v>
       </c>
@@ -9638,15 +7622,8 @@
       <c r="E289" t="s">
         <v>804</v>
       </c>
-      <c r="K289" t="s">
-        <v>522</v>
-      </c>
-      <c r="M289" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>53</v>
       </c>
@@ -9662,15 +7639,8 @@
       <c r="E290" t="s">
         <v>617</v>
       </c>
-      <c r="K290" t="s">
-        <v>867</v>
-      </c>
-      <c r="M290" t="str">
-        <f t="shared" si="4"/>
-        <v>Swirl, White Chocolate</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>120</v>
       </c>
@@ -9686,15 +7656,8 @@
       <c r="E291" t="s">
         <v>668</v>
       </c>
-      <c r="K291" t="s">
-        <v>868</v>
-      </c>
-      <c r="M291" t="str">
-        <f t="shared" si="4"/>
-        <v>Syrup, Brown Sugar Cookie</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>290</v>
       </c>
@@ -9710,15 +7673,8 @@
       <c r="E292" t="s">
         <v>795</v>
       </c>
-      <c r="K292" t="s">
-        <v>591</v>
-      </c>
-      <c r="M292" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>247</v>
       </c>
@@ -9734,15 +7690,8 @@
       <c r="E293" t="s">
         <v>760</v>
       </c>
-      <c r="K293" t="s">
-        <v>409</v>
-      </c>
-      <c r="M293" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>291</v>
       </c>
@@ -9755,15 +7704,8 @@
       <c r="E294" t="s">
         <v>796</v>
       </c>
-      <c r="K294" t="s">
-        <v>410</v>
-      </c>
-      <c r="M294" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>292</v>
       </c>
@@ -9776,15 +7718,8 @@
       <c r="E295" t="s">
         <v>797</v>
       </c>
-      <c r="K295" t="s">
-        <v>411</v>
-      </c>
-      <c r="M295" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>21</v>
       </c>
@@ -9800,15 +7735,8 @@
       <c r="E296" t="s">
         <v>806</v>
       </c>
-      <c r="K296" t="s">
-        <v>413</v>
-      </c>
-      <c r="M296" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>272</v>
       </c>
@@ -9824,471 +7752,384 @@
       <c r="E297" t="s">
         <v>781</v>
       </c>
-      <c r="K297" t="s">
-        <v>592</v>
-      </c>
-      <c r="M297" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="K298" t="s">
-        <v>414</v>
-      </c>
-      <c r="M298" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="K299" t="s">
-        <v>594</v>
-      </c>
-      <c r="M299" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="K300" t="s">
-        <v>349</v>
-      </c>
-      <c r="M300" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="K301" t="s">
-        <v>416</v>
-      </c>
-      <c r="M301" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="K302" t="s">
-        <v>585</v>
-      </c>
-      <c r="M302" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K303" t="s">
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>867</v>
+      </c>
+      <c r="B298" t="s">
+        <v>841</v>
+      </c>
+      <c r="C298">
+        <v>150</v>
+      </c>
+      <c r="D298">
+        <v>911625</v>
+      </c>
+      <c r="E298" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
         <v>869</v>
       </c>
-      <c r="M303" t="str">
-        <f t="shared" si="4"/>
-        <v>Cleaning, Misc Items</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K304" t="s">
+      <c r="B300" t="s">
+        <v>843</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>914702</v>
+      </c>
+      <c r="E300" t="s">
         <v>870</v>
       </c>
-      <c r="M304" t="str">
-        <f t="shared" si="4"/>
-        <v>Dairy, Pink Whipped Cream</v>
-      </c>
-    </row>
-    <row r="305" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K305" t="s">
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
         <v>871</v>
       </c>
-      <c r="M305" t="str">
-        <f t="shared" si="4"/>
-        <v>Delfield Gasket Draw 64 Inch</v>
-      </c>
-    </row>
-    <row r="306" spans="11:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="K306" t="s">
-        <v>481</v>
-      </c>
-      <c r="M306" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K307" t="s">
+      <c r="B302" t="s">
+        <v>845</v>
+      </c>
+      <c r="C302">
+        <v>6</v>
+      </c>
+      <c r="D302">
+        <v>324811</v>
+      </c>
+      <c r="E302" t="s">
         <v>872</v>
       </c>
-      <c r="M307" t="str">
-        <f t="shared" si="4"/>
-        <v>Muffin, Corn (Deplete)</v>
-      </c>
-    </row>
-    <row r="308" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K308" t="s">
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
         <v>873</v>
       </c>
-      <c r="M308" t="str">
-        <f t="shared" si="4"/>
-        <v>OTGO Sticker Roll</v>
-      </c>
-    </row>
-    <row r="309" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K309" t="s">
+      <c r="B303" t="s">
+        <v>846</v>
+      </c>
+      <c r="C303">
+        <v>24</v>
+      </c>
+      <c r="D303">
+        <v>914272</v>
+      </c>
+      <c r="E303" t="s">
         <v>874</v>
       </c>
-      <c r="M309" t="str">
-        <f t="shared" si="4"/>
-        <v>PG Dawn Power Dissolver Spray</v>
-      </c>
-    </row>
-    <row r="310" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K310" t="s">
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
         <v>875</v>
       </c>
-      <c r="M310" t="str">
-        <f t="shared" si="4"/>
-        <v>PG Maxim Banish Bio Enzymatic Drain</v>
-      </c>
-    </row>
-    <row r="311" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K311" t="s">
+      <c r="B304" t="s">
+        <v>847</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>904009</v>
+      </c>
+      <c r="E304" t="s">
         <v>876</v>
       </c>
-      <c r="M311" t="str">
-        <f t="shared" si="4"/>
-        <v>PG SpicSpan Liquid Floor Cleaner</v>
-      </c>
-    </row>
-    <row r="312" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K312" t="s">
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
         <v>877</v>
       </c>
-      <c r="M312" t="str">
-        <f t="shared" si="4"/>
-        <v>SH Sight Gauge Seal w/Tube</v>
-      </c>
-    </row>
-    <row r="313" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K313" t="s">
+      <c r="B305" t="s">
+        <v>848</v>
+      </c>
+      <c r="C305">
+        <v>6</v>
+      </c>
+      <c r="D305">
+        <v>912175</v>
+      </c>
+      <c r="E305" t="s">
         <v>878</v>
       </c>
-      <c r="M313" t="str">
-        <f t="shared" si="4"/>
-        <v>Scour Pads</v>
-      </c>
-    </row>
-    <row r="314" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K314" t="s">
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
         <v>879</v>
       </c>
-      <c r="M314" t="str">
-        <f t="shared" si="4"/>
-        <v>Swirl, Peppermint Mocha</v>
-      </c>
-    </row>
-    <row r="315" spans="11:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="K315" t="s">
-        <v>570</v>
-      </c>
-      <c r="M315" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="316" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K316" t="s">
+      <c r="B307" t="s">
+        <v>850</v>
+      </c>
+      <c r="C307">
+        <v>408</v>
+      </c>
+      <c r="D307">
+        <v>914847</v>
+      </c>
+      <c r="E307" t="s">
         <v>880</v>
       </c>
-      <c r="M316" t="str">
-        <f t="shared" si="4"/>
-        <v>PG Test Strips for Quat Sanitizer</v>
-      </c>
-    </row>
-    <row r="317" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K317" t="s">
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
         <v>881</v>
       </c>
-      <c r="M317" t="str">
-        <f t="shared" si="4"/>
-        <v>Pitcher IO Blender</v>
-      </c>
-    </row>
-    <row r="318" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K318" t="s">
+      <c r="B308" t="s">
+        <v>851</v>
+      </c>
+      <c r="C308">
+        <v>90</v>
+      </c>
+      <c r="D308">
+        <v>910267</v>
+      </c>
+      <c r="E308" t="s">
         <v>882</v>
       </c>
-      <c r="M318" t="str">
-        <f t="shared" si="4"/>
-        <v>SYR Mop Head Blue 4 count</v>
-      </c>
-    </row>
-    <row r="319" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K319" t="s">
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
         <v>883</v>
       </c>
-      <c r="M319" t="str">
-        <f t="shared" si="4"/>
-        <v>Spreader Cream Cheese 3.5 Inch Single</v>
-      </c>
-    </row>
-    <row r="320" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K320" t="s">
+      <c r="B309" t="s">
+        <v>852</v>
+      </c>
+      <c r="C309">
+        <v>90</v>
+      </c>
+      <c r="D309">
+        <v>910272</v>
+      </c>
+      <c r="E309" t="s">
         <v>884</v>
       </c>
-      <c r="M320" t="str">
-        <f t="shared" si="4"/>
-        <v>Tumbler, Acrylic Bubble Sipper 24oz</v>
-      </c>
-    </row>
-    <row r="321" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K321" t="s">
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>287</v>
+      </c>
+      <c r="B310" t="s">
+        <v>853</v>
+      </c>
+      <c r="C310">
+        <v>12</v>
+      </c>
+      <c r="D310" t="s">
         <v>885</v>
       </c>
-      <c r="M321" t="str">
-        <f t="shared" si="4"/>
-        <v>TurboChef Stone Encore</v>
-      </c>
-    </row>
-    <row r="322" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K322" t="s">
+      <c r="E310" t="s">
         <v>886</v>
       </c>
-      <c r="M322" t="str">
-        <f t="shared" si="4"/>
-        <v>Bag, Delivery Poly</v>
-      </c>
-    </row>
-    <row r="323" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K323" t="s">
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
         <v>887</v>
       </c>
-      <c r="M323" t="str">
-        <f t="shared" ref="M323:M347" si="5">IF(ISERROR(VLOOKUP(K323, $B$2:$B$297, 1, FALSE)), K323, "")</f>
-        <v>Bucket, Spring Munchkin 50 Ct</v>
-      </c>
-    </row>
-    <row r="324" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K324" t="s">
+      <c r="B311" t="s">
+        <v>854</v>
+      </c>
+      <c r="C311">
+        <v>9</v>
+      </c>
+      <c r="D311">
+        <v>914771</v>
+      </c>
+      <c r="E311" t="s">
         <v>888</v>
       </c>
-      <c r="M324" t="str">
-        <f t="shared" si="5"/>
-        <v>Carrier, Brioche</v>
-      </c>
-    </row>
-    <row r="325" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K325" t="s">
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
         <v>889</v>
       </c>
-      <c r="M325" t="str">
-        <f t="shared" si="5"/>
-        <v>Condiment, Butter Cups</v>
-      </c>
-    </row>
-    <row r="326" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K326" t="s">
+      <c r="B312" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>272</v>
+      </c>
+      <c r="B313" t="s">
+        <v>856</v>
+      </c>
+      <c r="C313">
+        <v>24</v>
+      </c>
+      <c r="D313">
+        <v>913161</v>
+      </c>
+      <c r="E313" t="s">
         <v>890</v>
       </c>
-      <c r="M326" t="str">
-        <f t="shared" si="5"/>
-        <v>DD Crewneck Sweatshirt MD</v>
-      </c>
-    </row>
-    <row r="327" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K327" t="s">
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
         <v>891</v>
       </c>
-      <c r="M327" t="str">
-        <f t="shared" si="5"/>
-        <v>Delfield Gasket Push In 27 Inch Fridge</v>
-      </c>
-    </row>
-    <row r="328" spans="11:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="K328" t="s">
-        <v>589</v>
-      </c>
-      <c r="M328" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="11:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="K329" t="s">
-        <v>478</v>
-      </c>
-      <c r="M329" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="330" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K330" t="s">
+      <c r="B314" t="s">
+        <v>857</v>
+      </c>
+      <c r="C314">
+        <v>10</v>
+      </c>
+      <c r="D314">
+        <v>282775</v>
+      </c>
+      <c r="E314" t="s">
         <v>892</v>
       </c>
-      <c r="M330" t="str">
-        <f t="shared" si="5"/>
-        <v>Hashbrown Portion Bags (Plastic)</v>
-      </c>
-    </row>
-    <row r="331" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K331" t="s">
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
         <v>893</v>
       </c>
-      <c r="M331" t="str">
-        <f t="shared" si="5"/>
-        <v>Kitchen Shears</v>
-      </c>
-    </row>
-    <row r="332" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K332" t="s">
+      <c r="B316" t="s">
+        <v>859</v>
+      </c>
+      <c r="C316">
+        <v>4</v>
+      </c>
+      <c r="D316">
+        <v>250302</v>
+      </c>
+      <c r="E316" t="s">
         <v>894</v>
       </c>
-      <c r="M332" t="str">
-        <f t="shared" si="5"/>
-        <v>Liner, Iced Coffee Full</v>
-      </c>
-    </row>
-    <row r="333" spans="11:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="K333" t="s">
-        <v>498</v>
-      </c>
-      <c r="M333" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K334" t="s">
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
         <v>895</v>
       </c>
-      <c r="M334" t="str">
-        <f t="shared" si="5"/>
-        <v>Swirl, Honeycomb</v>
-      </c>
-    </row>
-    <row r="335" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K335" t="s">
+      <c r="B317" t="s">
+        <v>860</v>
+      </c>
+      <c r="C317">
+        <v>23</v>
+      </c>
+      <c r="D317">
+        <v>912944</v>
+      </c>
+      <c r="E317" t="s">
         <v>896</v>
       </c>
-      <c r="M335" t="str">
-        <f t="shared" si="5"/>
-        <v>Swirl, Lava Cake</v>
-      </c>
-    </row>
-    <row r="336" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K336" t="s">
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
         <v>897</v>
       </c>
-      <c r="M336" t="str">
-        <f t="shared" si="5"/>
-        <v>Taylor Dairy Tubes 100 per pack</v>
-      </c>
-    </row>
-    <row r="337" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K337" t="s">
+      <c r="B318" t="s">
+        <v>861</v>
+      </c>
+      <c r="C318">
+        <v>12</v>
+      </c>
+      <c r="D318">
+        <v>150205</v>
+      </c>
+      <c r="E318" t="s">
         <v>898</v>
       </c>
-      <c r="M337" t="str">
-        <f t="shared" si="5"/>
-        <v>Tumbler, Hydration Bottle Soft Touch 24oz</v>
-      </c>
-    </row>
-    <row r="338" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K338" t="s">
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
         <v>899</v>
       </c>
-      <c r="M338" t="str">
-        <f t="shared" si="5"/>
-        <v>Tumbler, Ombre Acrylic Sipper 24oz</v>
-      </c>
-    </row>
-    <row r="339" spans="11:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="K339" t="s">
-        <v>391</v>
-      </c>
-      <c r="M339" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K340" t="s">
+      <c r="B319" t="s">
+        <v>862</v>
+      </c>
+      <c r="C319">
+        <v>4</v>
+      </c>
+      <c r="D319">
+        <v>352299</v>
+      </c>
+      <c r="E319" t="s">
         <v>900</v>
       </c>
-      <c r="M340" t="str">
-        <f t="shared" si="5"/>
-        <v>DD Hoodie MD</v>
-      </c>
-    </row>
-    <row r="341" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K341" t="s">
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
         <v>901</v>
       </c>
-      <c r="M341" t="str">
-        <f t="shared" si="5"/>
-        <v>Gift Card, DD Cup</v>
-      </c>
-    </row>
-    <row r="342" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K342" t="s">
+      <c r="B320" t="s">
+        <v>863</v>
+      </c>
+      <c r="C320">
+        <v>24</v>
+      </c>
+      <c r="D320">
+        <v>914803</v>
+      </c>
+      <c r="E320" t="s">
         <v>902</v>
       </c>
-      <c r="M342" t="str">
-        <f t="shared" si="5"/>
-        <v>Label, Beverage Orange</v>
-      </c>
-    </row>
-    <row r="343" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K343" t="s">
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
         <v>903</v>
       </c>
-      <c r="M343" t="str">
-        <f t="shared" si="5"/>
-        <v>Lemon Loaf Iced</v>
-      </c>
-    </row>
-    <row r="344" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K344" t="s">
+      <c r="B321" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
         <v>904</v>
       </c>
-      <c r="M344" t="str">
-        <f t="shared" si="5"/>
-        <v>Milk, Pint (16oz) Whole</v>
-      </c>
-    </row>
-    <row r="345" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K345" t="s">
+      <c r="B322" t="s">
+        <v>865</v>
+      </c>
+      <c r="C322">
+        <v>8</v>
+      </c>
+      <c r="D322">
+        <v>915027</v>
+      </c>
+      <c r="E322" t="s">
         <v>905</v>
       </c>
-      <c r="M345" t="str">
-        <f t="shared" si="5"/>
-        <v>Portion Tray</v>
-      </c>
-    </row>
-    <row r="346" spans="11:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="K346" t="s">
-        <v>415</v>
-      </c>
-      <c r="M346" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="347" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K347" t="s">
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
         <v>906</v>
       </c>
-      <c r="M347" t="s">
-        <v>908</v>
+      <c r="B323" t="s">
+        <v>866</v>
+      </c>
+      <c r="C323">
+        <v>100</v>
+      </c>
+      <c r="D323">
+        <v>324810</v>
+      </c>
+      <c r="E323" t="s">
+        <v>907</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="M1:M347" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>